--- a/biology/Zoologie/Craniidae/Craniidae.xlsx
+++ b/biology/Zoologie/Craniidae/Craniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Craniidae ou cranidés sont une famille de brachiopodes de la classe des Craniata[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Craniidae ou cranidés sont une famille de brachiopodes de la classe des Craniata.
 La plupart des genres et espèces rattachés à cette famille qui existent depuis le début de l'Ordovicien il y a environ 470 Ma (millions d'années) sont aujourd'hui éteints. Seules une vingtaine d'espèces survivent de nos jours.
 Les Cranidae sont la seule famille de la super-famille des Cranioidea, elle-même monotypique au sein du sous-ordre des Craniidina et de l'ordre des Craniida, ce qui fait que ces trois derniers taxons sont peu utilisés.
 </t>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cranidés sont de petits brachiopodes qui vivent fixés sur le substrat du fond marin ou sur des coquilles de congénères ou d'autres coquillages.
 </t>
@@ -544,7 +558,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acanthocrania Williams, 1943
@@ -560,8 +576,8 @@
 Orthisocrania Rowell, 1963
 Petrocrania Raymond, 1911
 Philhedracrania Koken, 1889
-Pseudocrania McCoy, 1851[2]
-Valdiviathyris Helmcke, 1940[3],[4]
+Pseudocrania McCoy, 1851
+Valdiviathyris Helmcke, 1940,
 </t>
         </is>
       </c>
